--- a/random_result.xlsx
+++ b/random_result.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1434.573478755931</v>
+        <v>2198.616175038158</v>
       </c>
       <c r="C2">
-        <v>0.07123616963124907</v>
+        <v>0.02560876435714938</v>
       </c>
       <c r="D2">
-        <v>0.3051943468978331</v>
+        <v>0.4787783906391984</v>
       </c>
       <c r="E2">
-        <v>5285.403120117585</v>
+        <v>4245.276730638971</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1335.047808462648</v>
+        <v>1693.98210969817</v>
       </c>
       <c r="C3">
-        <v>0.04147926084928974</v>
+        <v>0.02899901723154995</v>
       </c>
       <c r="D3">
-        <v>0.3737459499795399</v>
+        <v>1.043226733983683</v>
       </c>
       <c r="E3">
-        <v>3929.111278045782</v>
+        <v>4910.803246819685</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1226.593391432074</v>
+        <v>651.8687566290234</v>
       </c>
       <c r="C4">
-        <v>0.0804719593374725</v>
+        <v>0.02935955907817048</v>
       </c>
       <c r="D4">
-        <v>0.3909776142340247</v>
+        <v>1.197001201398334</v>
       </c>
       <c r="E4">
-        <v>5659.621154148323</v>
+        <v>4161.371406090848</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1843.804483240477</v>
+        <v>1331.474577923706</v>
       </c>
       <c r="C5">
-        <v>0.05349984536888033</v>
+        <v>0.04539492561334902</v>
       </c>
       <c r="D5">
-        <v>0.3850210578951316</v>
+        <v>1.771334573609793</v>
       </c>
       <c r="E5">
-        <v>5015.481018696628</v>
+        <v>6615.214837062282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2090.183268907935</v>
+        <v>1871.810729961494</v>
       </c>
       <c r="C6">
-        <v>0.05222597466688169</v>
+        <v>0.02375909859995445</v>
       </c>
       <c r="D6">
-        <v>1.623239520124238</v>
+        <v>0.8901372887224424</v>
       </c>
       <c r="E6">
-        <v>7424.898940999383</v>
+        <v>4570.929385963511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3339.562717363337</v>
+        <v>1344.75988085712</v>
       </c>
       <c r="C7">
-        <v>0.02345990779786457</v>
+        <v>0.07979488521848557</v>
       </c>
       <c r="D7">
-        <v>0.9890595465775646</v>
+        <v>1.365062635385979</v>
       </c>
       <c r="E7">
-        <v>6202.334171759199</v>
+        <v>7494.485582602339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>691.7805602143846</v>
+        <v>2354.01240474548</v>
       </c>
       <c r="C8">
-        <v>0.02366214515847502</v>
+        <v>0.04334599054352412</v>
       </c>
       <c r="D8">
-        <v>0.421848671787334</v>
+        <v>0.4341704714531892</v>
       </c>
       <c r="E8">
-        <v>2546.012860192263</v>
+        <v>5143.071531070975</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1965.628568462444</v>
+        <v>660.6426280121256</v>
       </c>
       <c r="C9">
-        <v>0.01724863007800616</v>
+        <v>0.05559936200674769</v>
       </c>
       <c r="D9">
-        <v>0.8857606036646659</v>
+        <v>1.270598002029746</v>
       </c>
       <c r="E9">
-        <v>4355.010928810796</v>
+        <v>5518.927383543369</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1698.22712830254</v>
+        <v>868.7133309356307</v>
       </c>
       <c r="C10">
-        <v>0.01461742577169596</v>
+        <v>0.07656226329329768</v>
       </c>
       <c r="D10">
-        <v>0.4201651219353905</v>
+        <v>1.028040505096499</v>
       </c>
       <c r="E10">
-        <v>3130.046340333573</v>
+        <v>6263.726673727107</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,16 +567,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1400.427755849625</v>
+        <v>5207.244569049534</v>
       </c>
       <c r="C11">
-        <v>0.03060303488322151</v>
+        <v>0.014286854864195</v>
       </c>
       <c r="D11">
-        <v>0.9462619978202514</v>
+        <v>0.7571177683723891</v>
       </c>
       <c r="E11">
-        <v>4517.612174697132</v>
+        <v>7228.430860443474</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,16 +584,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1532.234726606495</v>
+        <v>976.7313605554994</v>
       </c>
       <c r="C12">
-        <v>0.06607436168692218</v>
+        <v>0.0369017153968719</v>
       </c>
       <c r="D12">
-        <v>1.181892088874912</v>
+        <v>1.611885792161879</v>
       </c>
       <c r="E12">
-        <v>6717.039863310185</v>
+        <v>5580.505804874989</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -601,16 +601,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2127.746430139061</v>
+        <v>2107.108987241053</v>
       </c>
       <c r="C13">
-        <v>0.08422165795334613</v>
+        <v>0.01016642724160368</v>
       </c>
       <c r="D13">
-        <v>0.5041323410873062</v>
+        <v>1.092024910271464</v>
       </c>
       <c r="E13">
-        <v>6937.710278379082</v>
+        <v>4538.260804387699</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,16 +618,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1580.836889821527</v>
+        <v>949.4893808860427</v>
       </c>
       <c r="C14">
-        <v>0.02675103231149321</v>
+        <v>0.03526915068458409</v>
       </c>
       <c r="D14">
-        <v>0.5555271665792555</v>
+        <v>1.366121805143958</v>
       </c>
       <c r="E14">
-        <v>3818.196267396272</v>
+        <v>5036.515887054158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,16 +635,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>829.7297754864741</v>
+        <v>3227.3800596765</v>
       </c>
       <c r="C15">
-        <v>0.004583592014198466</v>
+        <v>0.0266437678347425</v>
       </c>
       <c r="D15">
-        <v>0.3213713602475095</v>
+        <v>2.134331072037317</v>
       </c>
       <c r="E15">
-        <v>1618.997975779499</v>
+        <v>8293.087212715815</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,16 +652,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2286.105210105037</v>
+        <v>2479.015739830826</v>
       </c>
       <c r="C16">
-        <v>0.05142791175148564</v>
+        <v>0.03917981722180917</v>
       </c>
       <c r="D16">
-        <v>1.47219339223369</v>
+        <v>0.5417884556718313</v>
       </c>
       <c r="E16">
-        <v>7312.748369159612</v>
+        <v>5268.026101394225</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -669,16 +669,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1487.328815698642</v>
+        <v>1819.919315887909</v>
       </c>
       <c r="C17">
-        <v>0.05319870277891447</v>
+        <v>0.009675099770049257</v>
       </c>
       <c r="D17">
-        <v>2.818824985423192</v>
+        <v>1.393262051622737</v>
       </c>
       <c r="E17">
-        <v>9012.746292096726</v>
+        <v>4768.889095686557</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -686,16 +686,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1273.451304394142</v>
+        <v>265.8487191532008</v>
       </c>
       <c r="C18">
-        <v>0.03582689280346864</v>
+        <v>0.03186121576523834</v>
       </c>
       <c r="D18">
-        <v>0.9413941261504732</v>
+        <v>1.265880191249666</v>
       </c>
       <c r="E18">
-        <v>4624.12328925105</v>
+        <v>4014.960147211301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -703,16 +703,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>944.5505717490721</v>
+        <v>1118.925211869475</v>
       </c>
       <c r="C19">
-        <v>0.05596030011500314</v>
+        <v>0.02890517142718855</v>
       </c>
       <c r="D19">
-        <v>1.481051321150529</v>
+        <v>1.521563091810364</v>
       </c>
       <c r="E19">
-        <v>6197.251081025357</v>
+        <v>5189.817269736519</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -720,16 +720,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2780.194505877243</v>
+        <v>973.2498014578744</v>
       </c>
       <c r="C20">
-        <v>0.05259386234965509</v>
+        <v>0.02278619747682468</v>
       </c>
       <c r="D20">
-        <v>1.032781598241774</v>
+        <v>0.8088425997374393</v>
       </c>
       <c r="E20">
-        <v>7072.332861275759</v>
+        <v>3481.364858028349</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -737,16 +737,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2970.143371309917</v>
+        <v>2284.11621993476</v>
       </c>
       <c r="C21">
-        <v>0.01644346940421473</v>
+        <v>0.02864816868337455</v>
       </c>
       <c r="D21">
-        <v>1.043751505546695</v>
+        <v>0.2495357868063354</v>
       </c>
       <c r="E21">
-        <v>5605.721958492532</v>
+        <v>4060.311195684512</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -754,16 +754,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3666.638264690224</v>
+        <v>1908.494411486803</v>
       </c>
       <c r="C22">
-        <v>0.05572252058902082</v>
+        <v>0.02397523198792477</v>
       </c>
       <c r="D22">
-        <v>1.475200921697611</v>
+        <v>1.07117028563334</v>
       </c>
       <c r="E22">
-        <v>8897.81412197968</v>
+        <v>4942.516705810564</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -771,16 +771,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4663.191183129326</v>
+        <v>1563.114995246227</v>
       </c>
       <c r="C23">
-        <v>0.01818927129518181</v>
+        <v>0.07927050121279954</v>
       </c>
       <c r="D23">
-        <v>2.017500664988165</v>
+        <v>1.010309838718443</v>
       </c>
       <c r="E23">
-        <v>9127.210558529272</v>
+        <v>7051.88632869127</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,16 +788,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1012.564624822349</v>
+        <v>563.9828750727404</v>
       </c>
       <c r="C24">
-        <v>0.02076651315565759</v>
+        <v>0.01441215244252879</v>
       </c>
       <c r="D24">
-        <v>1.137326848650234</v>
+        <v>2.344350495095286</v>
       </c>
       <c r="E24">
-        <v>4016.527398305667</v>
+        <v>5439.426902411102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -805,16 +805,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3589.76811203107</v>
+        <v>1397.565954516529</v>
       </c>
       <c r="C25">
-        <v>0.0267707433110666</v>
+        <v>0.04403845630349591</v>
       </c>
       <c r="D25">
-        <v>0.7930073388148864</v>
+        <v>2.09583948450015</v>
       </c>
       <c r="E25">
-        <v>6254.223379928686</v>
+        <v>7200.765021815847</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -822,16 +822,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3259.951076498748</v>
+        <v>2391.291082629474</v>
       </c>
       <c r="C26">
-        <v>0.01796431782336179</v>
+        <v>0.02897239744213068</v>
       </c>
       <c r="D26">
-        <v>2.015535829718574</v>
+        <v>0.6885318147675243</v>
       </c>
       <c r="E26">
-        <v>7710.013560724638</v>
+        <v>4970.342392962224</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -839,16 +839,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>697.3545925112996</v>
+        <v>1425.608194994892</v>
       </c>
       <c r="C27">
-        <v>0.03785514166681739</v>
+        <v>0.03467604101221439</v>
       </c>
       <c r="D27">
-        <v>1.558796497703479</v>
+        <v>1.085480669167023</v>
       </c>
       <c r="E27">
-        <v>5250.064116144702</v>
+        <v>4981.494400004687</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -856,16 +856,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2459.644815083303</v>
+        <v>1393.51820487152</v>
       </c>
       <c r="C28">
-        <v>0.01918853424015097</v>
+        <v>0.07317679512794979</v>
       </c>
       <c r="D28">
-        <v>1.221063223454587</v>
+        <v>0.6158059690091922</v>
       </c>
       <c r="E28">
-        <v>5540.712071630851</v>
+        <v>5891.75572533683</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -873,16 +873,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2768.492228085213</v>
+        <v>1547.30670059038</v>
       </c>
       <c r="C29">
-        <v>0.05452375148693361</v>
+        <v>0.02361675993372324</v>
       </c>
       <c r="D29">
-        <v>0.429743506206564</v>
+        <v>1.63009587920063</v>
       </c>
       <c r="E29">
-        <v>6067.904854658177</v>
+        <v>5567.754985575065</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -890,16 +890,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1510.98940629548</v>
+        <v>3520.330740041749</v>
       </c>
       <c r="C30">
-        <v>0.06264661738742461</v>
+        <v>0.06656286787579443</v>
       </c>
       <c r="D30">
-        <v>0.4598102831572177</v>
+        <v>0.2427824945417518</v>
       </c>
       <c r="E30">
-        <v>5241.006521635524</v>
+        <v>7042.461190790048</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -907,16 +907,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1034.337770817241</v>
+        <v>1468.959604581598</v>
       </c>
       <c r="C31">
-        <v>0.03045458035225762</v>
+        <v>0.05463856978344432</v>
       </c>
       <c r="D31">
-        <v>1.511156328186944</v>
+        <v>0.7631986869443845</v>
       </c>
       <c r="E31">
-        <v>5158.397912815453</v>
+        <v>5372.114872503887</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -924,16 +924,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4008.779462636618</v>
+        <v>1757.719831846354</v>
       </c>
       <c r="C32">
-        <v>0.0492296678748395</v>
+        <v>0.02990870800535983</v>
       </c>
       <c r="D32">
-        <v>1.739275228551126</v>
+        <v>3.832149048052126</v>
       </c>
       <c r="E32">
-        <v>9412.797996285859</v>
+        <v>10021.72212328175</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -941,16 +941,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1754.251342120429</v>
+        <v>1807.569698196243</v>
       </c>
       <c r="C33">
-        <v>0.04229492310982238</v>
+        <v>0.03996466333835853</v>
       </c>
       <c r="D33">
-        <v>0.4656760792327885</v>
+        <v>0.642422490547384</v>
       </c>
       <c r="E33">
-        <v>4551.113812164782</v>
+        <v>4813.57018502329</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -958,16 +958,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2683.861976134995</v>
+        <v>722.0653649708443</v>
       </c>
       <c r="C34">
-        <v>0.01285991748212417</v>
+        <v>0.02340402592608465</v>
       </c>
       <c r="D34">
-        <v>0.8879930514286418</v>
+        <v>2.182847402938323</v>
       </c>
       <c r="E34">
-        <v>4873.751833383031</v>
+        <v>5724.617337202542</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -975,16 +975,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3093.236637645127</v>
+        <v>1085.751934660366</v>
       </c>
       <c r="C35">
-        <v>0.02441269116812394</v>
+        <v>0.04263393934508736</v>
       </c>
       <c r="D35">
-        <v>0.3530208396286643</v>
+        <v>1.355314382939657</v>
       </c>
       <c r="E35">
-        <v>4858.752345283206</v>
+        <v>5494.879043255035</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -992,16 +992,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>713.1968708073225</v>
+        <v>1576.664953523496</v>
       </c>
       <c r="C36">
-        <v>0.0413028974405262</v>
+        <v>0.03546567566206221</v>
       </c>
       <c r="D36">
-        <v>1.151540636022019</v>
+        <v>1.053238374722651</v>
       </c>
       <c r="E36">
-        <v>4694.912943733991</v>
+        <v>5111.303461215472</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1009,16 +1009,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1252.006121542561</v>
+        <v>2460.51616243326</v>
       </c>
       <c r="C37">
-        <v>0.0390962174424284</v>
+        <v>0.04264504819330511</v>
       </c>
       <c r="D37">
-        <v>0.4908235704344375</v>
+        <v>1.567171991466526</v>
       </c>
       <c r="E37">
-        <v>3945.678487804757</v>
+        <v>7250.358038029512</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1026,16 +1026,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1929.756716759081</v>
+        <v>621.6319693968804</v>
       </c>
       <c r="C38">
-        <v>0.01025324513985792</v>
+        <v>0.02853762250726735</v>
       </c>
       <c r="D38">
-        <v>0.9649918052677069</v>
+        <v>0.7563976999458895</v>
       </c>
       <c r="E38">
-        <v>4136.960555876587</v>
+        <v>3302.315453096277</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1043,16 +1043,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2886.66935085044</v>
+        <v>1241.490683854653</v>
       </c>
       <c r="C39">
-        <v>0.02593209353183901</v>
+        <v>0.0119294411886906</v>
       </c>
       <c r="D39">
-        <v>1.366253442931344</v>
+        <v>1.462748960535391</v>
       </c>
       <c r="E39">
-        <v>6540.984985563879</v>
+        <v>4419.692528783093</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1060,16 +1060,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>402.0292315434899</v>
+        <v>1727.733365432205</v>
       </c>
       <c r="C40">
-        <v>0.05088724189990551</v>
+        <v>0.05058212396600546</v>
       </c>
       <c r="D40">
-        <v>1.412510915893447</v>
+        <v>0.2702803184683339</v>
       </c>
       <c r="E40">
-        <v>5296.496065817601</v>
+        <v>4558.205250676755</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1077,16 +1077,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>986.280506335218</v>
+        <v>1524.201139233469</v>
       </c>
       <c r="C41">
-        <v>0.02286318677225193</v>
+        <v>0.04488829572360427</v>
       </c>
       <c r="D41">
-        <v>0.5819845253710171</v>
+        <v>1.205353606537829</v>
       </c>
       <c r="E41">
-        <v>3090.845955420696</v>
+        <v>5768.740190562389</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1094,16 +1094,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1476.483896686856</v>
+        <v>1773.468764768982</v>
       </c>
       <c r="C42">
-        <v>0.04172467507647414</v>
+        <v>0.0391864562837124</v>
       </c>
       <c r="D42">
-        <v>0.7189530009220906</v>
+        <v>0.8312551666642738</v>
       </c>
       <c r="E42">
-        <v>4701.435476113396</v>
+        <v>5082.2639304827</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1111,16 +1111,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1190.930526743563</v>
+        <v>680.2169371817021</v>
       </c>
       <c r="C43">
-        <v>0.1097944410389637</v>
+        <v>0.03736480237655727</v>
       </c>
       <c r="D43">
-        <v>0.5719322918279895</v>
+        <v>1.142951071421886</v>
       </c>
       <c r="E43">
-        <v>7308.344617917057</v>
+        <v>4463.913868265267</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1128,16 +1128,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1720.044296065045</v>
+        <v>1945.932959446121</v>
       </c>
       <c r="C44">
-        <v>0.03381426452909178</v>
+        <v>0.01323518877422724</v>
       </c>
       <c r="D44">
-        <v>1.050177624402577</v>
+        <v>0.9762320574172231</v>
       </c>
       <c r="E44">
-        <v>5172.616210345363</v>
+        <v>4311.577375050693</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1145,16 +1145,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>424.7224906823233</v>
+        <v>2150.010397912416</v>
       </c>
       <c r="C45">
-        <v>0.05796421890176462</v>
+        <v>0.03169906601223905</v>
       </c>
       <c r="D45">
-        <v>0.6684612614877408</v>
+        <v>0.8804111703314049</v>
       </c>
       <c r="E45">
-        <v>4312.067967896287</v>
+        <v>5199.840449400204</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1162,16 +1162,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1537.41126399929</v>
+        <v>1181.636730701201</v>
       </c>
       <c r="C46">
-        <v>0.1001354478533181</v>
+        <v>0.0455119581317051</v>
       </c>
       <c r="D46">
-        <v>0.7522382698584102</v>
+        <v>1.077919653281709</v>
       </c>
       <c r="E46">
-        <v>7530.527602608865</v>
+        <v>5226.40121838257</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1179,16 +1179,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2502.505243999869</v>
+        <v>381.7483382773538</v>
       </c>
       <c r="C47">
-        <v>0.05265396382851408</v>
+        <v>0.0463437285653278</v>
       </c>
       <c r="D47">
-        <v>1.355682044262926</v>
+        <v>1.125012512079758</v>
       </c>
       <c r="E47">
-        <v>7376.9075666697</v>
+        <v>4549.593775745518</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1196,16 +1196,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2738.427269918279</v>
+        <v>2268.766012033834</v>
       </c>
       <c r="C48">
-        <v>0.0295101326159155</v>
+        <v>0.02905885743875926</v>
       </c>
       <c r="D48">
-        <v>0.9368673832910102</v>
+        <v>1.351725331360194</v>
       </c>
       <c r="E48">
-        <v>5788.0756670986</v>
+        <v>6041.993444024862</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1213,16 +1213,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>947.279405666628</v>
+        <v>741.4815643164534</v>
       </c>
       <c r="C49">
-        <v>0.03606415132550914</v>
+        <v>0.02193401141200192</v>
       </c>
       <c r="D49">
-        <v>1.894790306865659</v>
+        <v>1.63341555747936</v>
       </c>
       <c r="E49">
-        <v>6019.917543293361</v>
+        <v>4689.860499388493</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1230,16 +1230,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4718.031301593885</v>
+        <v>3722.325130746259</v>
       </c>
       <c r="C50">
-        <v>0.01246914325821982</v>
+        <v>0.01952961943809507</v>
       </c>
       <c r="D50">
-        <v>1.941197304172269</v>
+        <v>0.9581545196164356</v>
       </c>
       <c r="E50">
-        <v>8779.881821967423</v>
+        <v>6347.392101192918</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1247,16 +1247,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>693.6926841721986</v>
+        <v>2279.012100133426</v>
       </c>
       <c r="C51">
-        <v>0.04424202050927521</v>
+        <v>0.03079805831188097</v>
       </c>
       <c r="D51">
-        <v>1.846765434294116</v>
+        <v>0.9078620708206061</v>
       </c>
       <c r="E51">
-        <v>6059.342466524644</v>
+        <v>5336.326990893618</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1264,16 +1264,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1620.042926321451</v>
+        <v>1535.402646454061</v>
       </c>
       <c r="C52">
-        <v>0.08265055340521986</v>
+        <v>0.02924467280439987</v>
       </c>
       <c r="D52">
-        <v>1.00639009500129</v>
+        <v>0.6053722052894266</v>
       </c>
       <c r="E52">
-        <v>7258.50847998585</v>
+        <v>3977.840773485114</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1281,16 +1281,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>807.9642407207079</v>
+        <v>704.2451550355887</v>
       </c>
       <c r="C53">
-        <v>0.06067037486997036</v>
+        <v>0.03414064524086321</v>
       </c>
       <c r="D53">
-        <v>1.869095920579418</v>
+        <v>0.8511267583983598</v>
       </c>
       <c r="E53">
-        <v>6975.449584321977</v>
+        <v>3814.734231230847</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1298,16 +1298,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1350.484258613719</v>
+        <v>1177.302412958893</v>
       </c>
       <c r="C54">
-        <v>0.02953666239534366</v>
+        <v>0.06234451970919117</v>
       </c>
       <c r="D54">
-        <v>1.088149969569193</v>
+        <v>0.9527117109895124</v>
       </c>
       <c r="E54">
-        <v>4672.85453624694</v>
+        <v>5777.872557095047</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1315,16 +1315,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2148.341391017197</v>
+        <v>1351.070298242357</v>
       </c>
       <c r="C55">
-        <v>0.03025604102049325</v>
+        <v>0.01912837013109025</v>
       </c>
       <c r="D55">
-        <v>1.795374433812667</v>
+        <v>1.448273689141157</v>
       </c>
       <c r="E55">
-        <v>6773.253336643944</v>
+        <v>4837.099725588861</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1332,16 +1332,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2724.455670477884</v>
+        <v>896.721344799289</v>
       </c>
       <c r="C56">
-        <v>0.05759204142576321</v>
+        <v>0.05846940744897042</v>
       </c>
       <c r="D56">
-        <v>0.4855197549288546</v>
+        <v>0.7845335340073973</v>
       </c>
       <c r="E56">
-        <v>6266.236938011579</v>
+        <v>5015.795053413965</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1349,16 +1349,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1473.61806350936</v>
+        <v>1973.852122158747</v>
       </c>
       <c r="C57">
-        <v>0.03410014810847303</v>
+        <v>0.0411367580050646</v>
       </c>
       <c r="D57">
-        <v>2.742221438837729</v>
+        <v>1.642241732294556</v>
       </c>
       <c r="E57">
-        <v>7975.98785424342</v>
+        <v>6828.476714476416</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1366,16 +1366,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1807.740489603778</v>
+        <v>1486.791334838341</v>
       </c>
       <c r="C58">
-        <v>0.01569987811961759</v>
+        <v>0.03962338359152032</v>
       </c>
       <c r="D58">
-        <v>1.549873187049774</v>
+        <v>1.299917836563696</v>
       </c>
       <c r="E58">
-        <v>5317.125692649633</v>
+        <v>5656.908274841842</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1383,16 +1383,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2272.874109686735</v>
+        <v>877.3138352287652</v>
       </c>
       <c r="C59">
-        <v>0.02147620230049313</v>
+        <v>0.03114094019155501</v>
       </c>
       <c r="D59">
-        <v>0.5199353666397557</v>
+        <v>0.8438604183943369</v>
       </c>
       <c r="E59">
-        <v>4201.773485507293</v>
+        <v>3835.670344129998</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1400,16 +1400,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>946.4111449882023</v>
+        <v>2243.747337200245</v>
       </c>
       <c r="C60">
-        <v>0.04094038786701616</v>
+        <v>0.06870248078522263</v>
       </c>
       <c r="D60">
-        <v>1.172158514698448</v>
+        <v>0.2754612150614963</v>
       </c>
       <c r="E60">
-        <v>4948.318968951471</v>
+        <v>5923.734067510552</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1417,16 +1417,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>958.209691719675</v>
+        <v>2004.822343373661</v>
       </c>
       <c r="C61">
-        <v>0.05205061651482832</v>
+        <v>0.07217951045234043</v>
       </c>
       <c r="D61">
-        <v>1.431473523560609</v>
+        <v>0.9776735453624688</v>
       </c>
       <c r="E61">
-        <v>5940.650978586498</v>
+        <v>7106.224632397481</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1434,16 +1434,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1847.311578577715</v>
+        <v>1993.875433131351</v>
       </c>
       <c r="C62">
-        <v>0.03584736695334408</v>
+        <v>0.1201702054786955</v>
       </c>
       <c r="D62">
-        <v>0.3703342772808954</v>
+        <v>0.5194587286496075</v>
       </c>
       <c r="E62">
-        <v>4174.108918161866</v>
+        <v>8498.23107264387</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1451,16 +1451,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>725.8629952956885</v>
+        <v>2350.493240197199</v>
       </c>
       <c r="C63">
-        <v>0.05991314524932533</v>
+        <v>0.04601512682777784</v>
       </c>
       <c r="D63">
-        <v>2.189955237194773</v>
+        <v>0.6339340471078081</v>
       </c>
       <c r="E63">
-        <v>7434.050722956366</v>
+        <v>5621.812432324785</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1468,16 +1468,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1105.038401224484</v>
+        <v>2176.693437906465</v>
       </c>
       <c r="C64">
-        <v>0.05437354243501776</v>
+        <v>0.04475185669357851</v>
       </c>
       <c r="D64">
-        <v>0.5988005344212813</v>
+        <v>1.345084732633801</v>
       </c>
       <c r="E64">
-        <v>4700.8757736681</v>
+        <v>6665.667469040051</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1485,16 +1485,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2424.223838287231</v>
+        <v>2919.756024154224</v>
       </c>
       <c r="C65">
-        <v>0.1221329826034417</v>
+        <v>0.01728006606301659</v>
       </c>
       <c r="D65">
-        <v>1.200247805568138</v>
+        <v>0.3981592872519943</v>
       </c>
       <c r="E65">
-        <v>10241.33495927419</v>
+        <v>4435.54670751219</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1502,16 +1502,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1644.035298040885</v>
+        <v>1928.674141433657</v>
       </c>
       <c r="C66">
-        <v>0.065364512081675</v>
+        <v>0.01827619007435223</v>
       </c>
       <c r="D66">
-        <v>1.122964173711379</v>
+        <v>1.167855937467035</v>
       </c>
       <c r="E66">
-        <v>6690.173601899768</v>
+        <v>4871.951398750713</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1519,16 +1519,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2651.364231705913</v>
+        <v>2240.912344292447</v>
       </c>
       <c r="C67">
-        <v>0.04868215478433955</v>
+        <v>0.01500595121429005</v>
       </c>
       <c r="D67">
-        <v>0.5059551644068389</v>
+        <v>0.829174614321588</v>
       </c>
       <c r="E67">
-        <v>5816.679113477483</v>
+        <v>4424.755407164508</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1536,16 +1536,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2987.887589614024</v>
+        <v>1345.344714582274</v>
       </c>
       <c r="C68">
-        <v>0.06839142743658341</v>
+        <v>0.01746680968860902</v>
       </c>
       <c r="D68">
-        <v>1.442007247485376</v>
+        <v>0.9988534745535426</v>
       </c>
       <c r="E68">
-        <v>8746.934693415709</v>
+        <v>3947.800243756169</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1553,16 +1553,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1907.7355442936</v>
+        <v>1346.317038424949</v>
       </c>
       <c r="C69">
-        <v>0.01870700388352955</v>
+        <v>0.04549089575369</v>
       </c>
       <c r="D69">
-        <v>1.418525815932854</v>
+        <v>0.5108209507921896</v>
       </c>
       <c r="E69">
-        <v>5320.841237470877</v>
+        <v>4372.38955974178</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1570,16 +1570,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1213.464040044606</v>
+        <v>1229.352609192213</v>
       </c>
       <c r="C70">
-        <v>0.08646228437385557</v>
+        <v>0.06882211777139087</v>
       </c>
       <c r="D70">
-        <v>0.6196427001049447</v>
+        <v>0.5938429710679118</v>
       </c>
       <c r="E70">
-        <v>6334.617690476092</v>
+        <v>5486.254649155801</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1587,16 +1587,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1275.772772096375</v>
+        <v>2496.755449085535</v>
       </c>
       <c r="C71">
-        <v>0.06198525709844569</v>
+        <v>0.03860351357261695</v>
       </c>
       <c r="D71">
-        <v>1.675420431136294</v>
+        <v>0.1645108926042949</v>
       </c>
       <c r="E71">
-        <v>7156.657448781696</v>
+        <v>4581.981050712671</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1604,16 +1604,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1171.274405602987</v>
+        <v>2688.323096514778</v>
       </c>
       <c r="C72">
-        <v>0.02030586344218612</v>
+        <v>0.024433653502169</v>
       </c>
       <c r="D72">
-        <v>1.036381550066374</v>
+        <v>0.247221596969261</v>
       </c>
       <c r="E72">
-        <v>3972.721022485163</v>
+        <v>4264.943479245303</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1621,16 +1621,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2062.141743969365</v>
+        <v>2042.608060282038</v>
       </c>
       <c r="C73">
-        <v>0.06395722039725504</v>
+        <v>0.036311037097138</v>
       </c>
       <c r="D73">
-        <v>0.4291357624468451</v>
+        <v>0.7509571305008436</v>
       </c>
       <c r="E73">
-        <v>5797.881309118469</v>
+        <v>5073.970949414544</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1638,16 +1638,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3105.612537567102</v>
+        <v>4513.124918637428</v>
       </c>
       <c r="C74">
-        <v>0.02426600330616588</v>
+        <v>0.1040181603199025</v>
       </c>
       <c r="D74">
-        <v>0.824230147027787</v>
+        <v>0.5650304830890205</v>
       </c>
       <c r="E74">
-        <v>5709.958744265748</v>
+        <v>10350.31445383285</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1655,16 +1655,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1384.645669355862</v>
+        <v>927.7981527190766</v>
       </c>
       <c r="C75">
-        <v>0.01411272670452975</v>
+        <v>0.01401708825197153</v>
       </c>
       <c r="D75">
-        <v>1.443682656434454</v>
+        <v>1.38999114144808</v>
       </c>
       <c r="E75">
-        <v>4629.867214210195</v>
+        <v>4072.230275020111</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1672,16 +1672,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1882.940000845174</v>
+        <v>2588.710466367173</v>
       </c>
       <c r="C76">
-        <v>0.02914579260347171</v>
+        <v>0.06604883984384263</v>
       </c>
       <c r="D76">
-        <v>0.7129396702606121</v>
+        <v>0.8282572584960411</v>
       </c>
       <c r="E76">
-        <v>4513.833755129542</v>
+        <v>7137.699122042956</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1689,16 +1689,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>924.8021064118599</v>
+        <v>2701.143700038733</v>
       </c>
       <c r="C77">
-        <v>0.03397990402115274</v>
+        <v>0.04795804220221019</v>
       </c>
       <c r="D77">
-        <v>0.5702795196921746</v>
+        <v>2.224409902426087</v>
       </c>
       <c r="E77">
-        <v>3523.829368238021</v>
+        <v>8916.821302813791</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1706,16 +1706,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1895.096451759636</v>
+        <v>1111.691981628248</v>
       </c>
       <c r="C78">
-        <v>0.03700307936953517</v>
+        <v>0.0375182848192504</v>
       </c>
       <c r="D78">
-        <v>0.9582353176732208</v>
+        <v>0.7187646294366532</v>
       </c>
       <c r="E78">
-        <v>5330.529869187369</v>
+        <v>4141.260703730793</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1723,16 +1723,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1560.062434158883</v>
+        <v>2445.852720100756</v>
       </c>
       <c r="C79">
-        <v>0.04289175924512362</v>
+        <v>0.05954203835028422</v>
       </c>
       <c r="D79">
-        <v>1.041484712732321</v>
+        <v>0.7573360683217267</v>
       </c>
       <c r="E79">
-        <v>5417.945587620077</v>
+        <v>6565.854346543368</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1740,16 +1740,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1919.621651790703</v>
+        <v>1111.859315364664</v>
       </c>
       <c r="C80">
-        <v>0.01586513247076499</v>
+        <v>0.04897037769616033</v>
       </c>
       <c r="D80">
-        <v>1.851340253772063</v>
+        <v>1.009541243321109</v>
       </c>
       <c r="E80">
-        <v>5977.682280555883</v>
+        <v>5194.2742932049</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1757,16 +1757,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1211.223847523161</v>
+        <v>2063.520822471221</v>
       </c>
       <c r="C81">
-        <v>0.06638587346422591</v>
+        <v>0.03595533324984758</v>
       </c>
       <c r="D81">
-        <v>0.739669546256997</v>
+        <v>1.031002445065314</v>
       </c>
       <c r="E81">
-        <v>5616.860802277884</v>
+        <v>5580.959511694309</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1774,16 +1774,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1628.352701899078</v>
+        <v>358.6365169570925</v>
       </c>
       <c r="C82">
-        <v>0.0494435587708799</v>
+        <v>0.02526377784038547</v>
       </c>
       <c r="D82">
-        <v>2.983760480894975</v>
+        <v>0.5703612822183781</v>
       </c>
       <c r="E82">
-        <v>9275.642310056912</v>
+        <v>2553.655156935897</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1791,16 +1791,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3033.1085983789</v>
+        <v>1811.534772321482</v>
       </c>
       <c r="C83">
-        <v>0.09122817160520504</v>
+        <v>0.05285734844165478</v>
       </c>
       <c r="D83">
-        <v>0.5633015818511531</v>
+        <v>0.1810936033735956</v>
       </c>
       <c r="E83">
-        <v>8274.140425597534</v>
+        <v>4587.451357048811</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1808,16 +1808,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1867.316274736669</v>
+        <v>310.1482228674524</v>
       </c>
       <c r="C84">
-        <v>0.0609011123776971</v>
+        <v>0.04848703477143847</v>
       </c>
       <c r="D84">
-        <v>1.239258013647299</v>
+        <v>1.254249071288134</v>
       </c>
       <c r="E84">
-        <v>6915.193506524713</v>
+        <v>4809.30389053719</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1825,16 +1825,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2794.851588124056</v>
+        <v>1103.237843820783</v>
       </c>
       <c r="C85">
-        <v>0.04517082128372386</v>
+        <v>0.006251666944886408</v>
       </c>
       <c r="D85">
-        <v>1.34608559113081</v>
+        <v>1.290269480091747</v>
       </c>
       <c r="E85">
-        <v>7305.048599117802</v>
+        <v>3708.637059344117</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1842,16 +1842,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1749.970647894813</v>
+        <v>1975.171693926958</v>
       </c>
       <c r="C86">
-        <v>0.05523835447031434</v>
+        <v>0.04705257151904828</v>
       </c>
       <c r="D86">
-        <v>1.371032632287245</v>
+        <v>0.2133529162975146</v>
       </c>
       <c r="E86">
-        <v>6771.755944341623</v>
+        <v>4539.820939984057</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1859,16 +1859,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>873.7876783408166</v>
+        <v>3739.88077795733</v>
       </c>
       <c r="C87">
-        <v>0.04411879044996354</v>
+        <v>0.07178020873240536</v>
       </c>
       <c r="D87">
-        <v>1.868013084866794</v>
+        <v>0.9332774650654869</v>
       </c>
       <c r="E87">
-        <v>6271.854477992085</v>
+        <v>8743.094763612049</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1876,16 +1876,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1875.826594782102</v>
+        <v>1598.838920943546</v>
       </c>
       <c r="C88">
-        <v>0.03012912311565751</v>
+        <v>0.03641236106655143</v>
       </c>
       <c r="D88">
-        <v>0.2747652375416845</v>
+        <v>0.44446389001841</v>
       </c>
       <c r="E88">
-        <v>3765.968259796166</v>
+        <v>4084.867300433577</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1893,16 +1893,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2287.317545054388</v>
+        <v>1935.294191577853</v>
       </c>
       <c r="C89">
-        <v>0.0662960776204306</v>
+        <v>0.03750170232290596</v>
       </c>
       <c r="D89">
-        <v>1.692922458726509</v>
+        <v>0.7509087917198645</v>
       </c>
       <c r="E89">
-        <v>8399.498460882663</v>
+        <v>5021.779918681428</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1910,16 +1910,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>898.0637529717787</v>
+        <v>587.4577047599379</v>
       </c>
       <c r="C90">
-        <v>0.02666653191202131</v>
+        <v>0.01780281912916967</v>
       </c>
       <c r="D90">
-        <v>1.689788876889293</v>
+        <v>0.8286099905084685</v>
       </c>
       <c r="E90">
-        <v>5167.051023040927</v>
+        <v>2899.974595052974</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1927,16 +1927,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1682.62878610547</v>
+        <v>1826.874085698076</v>
       </c>
       <c r="C91">
-        <v>0.04219848116968612</v>
+        <v>0.03202642116369966</v>
       </c>
       <c r="D91">
-        <v>0.5904398738892968</v>
+        <v>1.613251748794</v>
       </c>
       <c r="E91">
-        <v>4698.920475615215</v>
+        <v>6207.038868832818</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1944,16 +1944,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3167.869065694459</v>
+        <v>2538.937821320254</v>
       </c>
       <c r="C92">
-        <v>0.01902275651492395</v>
+        <v>0.05863011514563694</v>
       </c>
       <c r="D92">
-        <v>1.110091436837896</v>
+        <v>0.2799826785006689</v>
       </c>
       <c r="E92">
-        <v>6042.099458029736</v>
+        <v>5759.996370009899</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1961,16 +1961,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1388.583321554312</v>
+        <v>1155.971858561012</v>
       </c>
       <c r="C93">
-        <v>0.0281408087072751</v>
+        <v>0.05138659100884163</v>
       </c>
       <c r="D93">
-        <v>1.710244326764524</v>
+        <v>0.1983147386574984</v>
       </c>
       <c r="E93">
-        <v>5762.640225662866</v>
+        <v>3894.596397201524</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1978,16 +1978,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>996.9058026240873</v>
+        <v>1523.83250022889</v>
       </c>
       <c r="C94">
-        <v>0.02135608935096812</v>
+        <v>0.01782940977903209</v>
       </c>
       <c r="D94">
-        <v>1.337204508497587</v>
+        <v>0.9571642152977889</v>
       </c>
       <c r="E94">
-        <v>4386.906900301199</v>
+        <v>4068.28577592921</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1995,16 +1995,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1964.78317711919</v>
+        <v>1089.453396553473</v>
       </c>
       <c r="C95">
-        <v>0.08863543256219279</v>
+        <v>0.03673542088515251</v>
       </c>
       <c r="D95">
-        <v>0.291382205970272</v>
+        <v>0.7296958872597787</v>
       </c>
       <c r="E95">
-        <v>6597.606579445664</v>
+        <v>4102.338978873035</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2012,16 +2012,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>797.3762377764626</v>
+        <v>1093.165601229888</v>
       </c>
       <c r="C96">
-        <v>0.01865469871053519</v>
+        <v>0.06169739493938169</v>
       </c>
       <c r="D96">
-        <v>0.6484802786400214</v>
+        <v>1.085626463325092</v>
       </c>
       <c r="E96">
-        <v>2826.132887376051</v>
+        <v>5902.258232064858</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2029,16 +2029,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1631.631196918408</v>
+        <v>1746.5888849448</v>
       </c>
       <c r="C97">
-        <v>0.04647223340111669</v>
+        <v>0.01404120161561631</v>
       </c>
       <c r="D97">
-        <v>1.088377390911125</v>
+        <v>0.6641958982286795</v>
       </c>
       <c r="E97">
-        <v>5739.689846831538</v>
+        <v>3589.626968848</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2046,16 +2046,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3536.457782247725</v>
+        <v>1709.95942603715</v>
       </c>
       <c r="C98">
-        <v>0.02931547529188362</v>
+        <v>0.03514397621005785</v>
       </c>
       <c r="D98">
-        <v>1.750428957497553</v>
+        <v>0.9598057191008516</v>
       </c>
       <c r="E98">
-        <v>8037.097775384845</v>
+        <v>5062.006907787085</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2063,16 +2063,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>516.8557648280433</v>
+        <v>1837.527165109798</v>
       </c>
       <c r="C99">
-        <v>0.0403198716153004</v>
+        <v>0.07178011084436919</v>
       </c>
       <c r="D99">
-        <v>1.041610191525898</v>
+        <v>1.19065990725532</v>
       </c>
       <c r="E99">
-        <v>4255.709042310083</v>
+        <v>7302.635142578389</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2080,16 +2080,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1724.684453434551</v>
+        <v>2318.962057220704</v>
       </c>
       <c r="C100">
-        <v>0.01917049118050134</v>
+        <v>0.03001239442611267</v>
       </c>
       <c r="D100">
-        <v>1.389083009673126</v>
+        <v>0.7110719810984998</v>
       </c>
       <c r="E100">
-        <v>5106.443385290344</v>
+        <v>4986.687247802218</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2097,16 +2097,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1335.919372943312</v>
+        <v>1423.656808969421</v>
       </c>
       <c r="C101">
-        <v>0.02918442292078047</v>
+        <v>0.02011552208281462</v>
       </c>
       <c r="D101">
-        <v>0.6841590729242603</v>
+        <v>0.5149312071478628</v>
       </c>
       <c r="E101">
-        <v>3916.954704455753</v>
+        <v>3280.482760963161</v>
       </c>
     </row>
   </sheetData>
